--- a/xlsx/萨尔瓦多_intext.xlsx
+++ b/xlsx/萨尔瓦多_intext.xlsx
@@ -15,1941 +15,1917 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="637">
   <si>
     <t>萨尔瓦多</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
+  </si>
+  <si>
+    <t>萨尔瓦多 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>萨尔瓦多国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%9B%BD%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>萨尔瓦多国徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家格言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>国歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%B1%AA%E7%9A%84%E5%90%91%E6%88%91%E5%80%91%E7%A5%96%E5%9C%8B%E8%87%B4%E6%95%AC</t>
+  </si>
+  <si>
+    <t>自豪的向我们祖国致敬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>圣萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>海岸线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>公里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
+  </si>
+  <si>
+    <t>时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
+  </si>
+  <si>
+    <t>UTC-6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2017年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口密度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>官方语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>官方文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>印欧民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
+  </si>
+  <si>
+    <t>主要节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
+  </si>
+  <si>
+    <t>电</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
+  </si>
+  <si>
+    <t>电压</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>家用电源列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
+  </si>
+  <si>
+    <t>频率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>政治体制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>总统制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>国家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>萨尔瓦多总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%C2%B7%E6%A1%91%E5%88%87%E6%96%AF%C2%B7%E5%A1%9E%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>萨尔瓦多·桑切斯·塞伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
+  </si>
+  <si>
+    <t>政府首脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
+  </si>
+  <si>
+    <t>购买力平价</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2016年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>人类发展指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2003%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2003年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>国花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9D%E5%85%B0</t>
+  </si>
+  <si>
+    <t>丝兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
+  </si>
+  <si>
+    <t>ISO 3166-1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
+  </si>
+  <si>
+    <t>国际域名缩写</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/.sv</t>
+  </si>
+  <si>
+    <t>.sv</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国际电话区号列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%85%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>平方公里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%A1%9E%E5%8D%A1%E7%81%A3</t>
+  </si>
+  <si>
+    <t>丰塞卡湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%91%E4%B8%96%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>救世主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%81%E6%9C%8D%E8%80%85</t>
+  </si>
+  <si>
+    <t>征服者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%BE%B7%E7%BE%85%C2%B7%E5%BE%B7%C2%B7%E9%98%BF%E7%88%BE%E7%93%A6%E6%8B%89%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>佩德罗·德·阿尔瓦拉多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>萨尔瓦多历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>墨西哥帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>中美洲联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E5%A8%9C%E7%81%AB%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>圣安娜火山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
+  </si>
+  <si>
+    <t>工业化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>兰花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E9%BB%84</t>
+  </si>
+  <si>
+    <t>硫黄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>萨尔瓦多行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E6%9F%A5%E6%BD%98%E7%9C%81</t>
+  </si>
+  <si>
+    <t>阿瓦查潘省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%93%A6%E5%B0%BC%E4%BA%9A%E6%96%AF%E7%9C%81</t>
+  </si>
+  <si>
+    <t>卡瓦尼亚斯省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E6%8B%89%E7%89%B9%E5%8D%97%E6%88%88%E7%9C%81</t>
+  </si>
+  <si>
+    <t>查拉特南戈省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%96%AF%E5%8D%A1%E7%89%B9%E5%85%B0%E7%9C%81</t>
+  </si>
+  <si>
+    <t>库斯卡特兰省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%88%A9%E4%BC%AF%E5%A1%94%E5%BE%B7%E7%9C%81</t>
+  </si>
+  <si>
+    <t>拉利伯塔德省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%96%AF%E7%9C%81_(%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A)</t>
+  </si>
+  <si>
+    <t>拉巴斯省 (萨尔瓦多)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B9%8C%E5%B0%BC%E7%BF%81%E7%9C%81</t>
+  </si>
+  <si>
+    <t>拉乌尼翁省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%8B%89%E6%A1%91%E7%9C%81</t>
+  </si>
+  <si>
+    <t>莫拉桑省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%B1%B3%E6%A0%BC%E5%B0%94%E7%9C%81_(%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A)</t>
+  </si>
+  <si>
+    <t>圣米格尔省 (萨尔瓦多)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A%E7%9C%81</t>
+  </si>
+  <si>
+    <t>圣萨尔瓦多省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%B4%E6%A3%AE%E7%89%B9%E7%9C%81</t>
+  </si>
+  <si>
+    <t>圣维森特省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E5%A8%9C%E7%9C%81</t>
+  </si>
+  <si>
+    <t>圣安娜省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E7%B4%A2%E7%BA%B3%E7%89%B9%E7%9C%81</t>
+  </si>
+  <si>
+    <t>松索纳特省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E8%8B%8F%E5%8D%A2%E5%9D%A6%E7%9C%81</t>
+  </si>
+  <si>
+    <t>乌苏卢坦省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>工业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>足球战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%A0%E6%AE%BA</t>
+  </si>
+  <si>
+    <t>屠杀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>西班牙人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>白人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E8%8A%82</t>
+  </si>
+  <si>
+    <t>劳动节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E4%BA%B2%E8%8A%82</t>
+  </si>
+  <si>
+    <t>母亲节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
+  </si>
+  <si>
+    <t>哥伦布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多国家足球队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>1970年世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1982%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>1982年世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>世界杯足球赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
+  </si>
+  <si>
+    <t>Central Intelligence Agency</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
+  </si>
+  <si>
+    <t>International Monetary Fund</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
+  </si>
+  <si>
+    <t>世界概况</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
+  </si>
+  <si>
+    <t>开放式目录</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/BBC_News</t>
+  </si>
+  <si>
+    <t>BBC News</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>维基导游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
+  </si>
+  <si>
+    <t>Template talk-America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>中美 (政治地理学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
+  </si>
+  <si>
+    <t>伯利兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>安提瓜和巴布达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>巴巴多斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>多米尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>多明尼加共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>格林纳达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>牙买加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣克里斯多福与尼维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>圣卢西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
+  </si>
+  <si>
+    <t>千里达及托巴哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
+  </si>
+  <si>
+    <t>苏利南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安圭拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>阿鲁巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>库拉索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>荷属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>英属维京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>百慕大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>开曼群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>福克兰群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
+  </si>
+  <si>
+    <t>法属圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
+  </si>
+  <si>
+    <t>瓜德罗普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>马提尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>法属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>圣巴泰勒米岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>蒙塞拉特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>纳弗沙岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
+  </si>
+  <si>
+    <t>圣皮埃尔和密克隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>南乔治亚和南桑威奇群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>特克斯和凯科斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>不结盟运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>博茨瓦纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
+  </si>
+  <si>
+    <t>汶莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布基纳法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>布隆迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中非共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
+  </si>
+  <si>
+    <t>葛摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>朝鲜民主主义人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多米尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>厄立特里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>斐济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>冈比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
+  </si>
+  <si>
+    <t>几内亚比绍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>肯尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%B4%A2%E6%89%98</t>
+  </si>
+  <si>
+    <t>莱索托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4</t>
+  </si>
+  <si>
+    <t>马拉维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
+  </si>
+  <si>
+    <t>毛里求斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>蒙古国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>尼日利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>巴布亚新几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞舌尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
+  </si>
+  <si>
+    <t>塞拉利昂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
+  </si>
+  <si>
+    <t>斯威士兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>坦桑尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>突尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>乌干达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>瓦努阿图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
+  </si>
+  <si>
+    <t>也门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赞比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特内哥罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>非洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>阿拉伯国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>伊斯兰合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>拉丁语联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>马尔他骑士团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩纳哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>几内亚比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>义大利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士历史辞典</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
-  </si>
-  <si>
-    <t>薩爾瓦多 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_萨尔瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>萨尔瓦多国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%9B%BD%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>萨尔瓦多国徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家格言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>國歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%B1%AA%E7%9A%84%E5%90%91%E6%88%91%E5%80%91%E7%A5%96%E5%9C%8B%E8%87%B4%E6%95%AC</t>
-  </si>
-  <si>
-    <t>自豪的向我們祖國致敬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家面積列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
-  </si>
-  <si>
-    <t>首都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>聖薩爾瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>海岸線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>公里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
-  </si>
-  <si>
-    <t>時區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
-  </si>
-  <si>
-    <t>UTC-6</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2017年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口密度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>官方語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>官方文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>印歐民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
-  </si>
-  <si>
-    <t>主要節日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
-  </si>
-  <si>
-    <t>電</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
-  </si>
-  <si>
-    <t>電壓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>家用電源列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
-  </si>
-  <si>
-    <t>頻率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>政治體制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
-  </si>
-  <si>
-    <t>總統制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>國家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>萨尔瓦多总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%C2%B7%E6%A1%91%E5%88%87%E6%96%AF%C2%B7%E5%A1%9E%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>萨尔瓦多·桑切斯·塞伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
-  </si>
-  <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國內生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
-  </si>
-  <si>
-    <t>購買力平價</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>人類發展指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2003%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2003年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>国花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9D%E5%85%B0</t>
-  </si>
-  <si>
-    <t>丝兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
-  </si>
-  <si>
-    <t>ISO 3166-1</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
-  </si>
-  <si>
-    <t>國際域名縮寫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/.sv</t>
-  </si>
-  <si>
-    <t>.sv</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國際電話區號列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%96%B9%E5%85%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>平方公里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地馬拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>太平洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%A1%9E%E5%8D%A1%E7%81%A3</t>
-  </si>
-  <si>
-    <t>豐塞卡灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>圣萨尔瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%91%E4%B8%96%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>救世主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%81%E6%9C%8D%E8%80%85</t>
-  </si>
-  <si>
-    <t>征服者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%BE%B7%E7%BE%85%C2%B7%E5%BE%B7%C2%B7%E9%98%BF%E7%88%BE%E7%93%A6%E6%8B%89%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>佩德羅·德·阿爾瓦拉多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>萨尔瓦多历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>墨西哥帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>中美洲联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>火山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E5%A8%9C%E7%81%AB%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>聖安娜火山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>薩爾瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
-  </si>
-  <si>
-    <t>工業化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
-  </si>
-  <si>
-    <t>植物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
-  </si>
-  <si>
-    <t>動物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>蘭花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E9%BB%84</t>
-  </si>
-  <si>
-    <t>硫黄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
-  </si>
-  <si>
-    <t>石油</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>萨尔瓦多行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E6%9F%A5%E6%BD%98%E7%9C%81</t>
-  </si>
-  <si>
-    <t>阿瓦查潘省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%93%A6%E5%B0%BC%E4%BA%9A%E6%96%AF%E7%9C%81</t>
-  </si>
-  <si>
-    <t>卡瓦尼亚斯省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E6%8B%89%E7%89%B9%E5%8D%97%E6%88%88%E7%9C%81</t>
-  </si>
-  <si>
-    <t>查拉特南戈省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%96%AF%E5%8D%A1%E7%89%B9%E5%85%B0%E7%9C%81</t>
-  </si>
-  <si>
-    <t>库斯卡特兰省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%88%A9%E4%BC%AF%E5%A1%94%E5%BE%B7%E7%9C%81</t>
-  </si>
-  <si>
-    <t>拉利伯塔德省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%96%AF%E7%9C%81_(%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A)</t>
-  </si>
-  <si>
-    <t>拉巴斯省 (萨尔瓦多)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B9%8C%E5%B0%BC%E7%BF%81%E7%9C%81</t>
-  </si>
-  <si>
-    <t>拉乌尼翁省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%8B%89%E6%A1%91%E7%9C%81</t>
-  </si>
-  <si>
-    <t>莫拉桑省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%B1%B3%E6%A0%BC%E5%B0%94%E7%9C%81_(%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A)</t>
-  </si>
-  <si>
-    <t>圣米格尔省 (萨尔瓦多)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A%E7%9C%81</t>
-  </si>
-  <si>
-    <t>聖薩爾瓦多省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%B4%E6%A3%AE%E7%89%B9%E7%9C%81</t>
-  </si>
-  <si>
-    <t>圣维森特省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E5%A8%9C%E7%9C%81</t>
-  </si>
-  <si>
-    <t>圣安娜省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E7%B4%A2%E7%BA%B3%E7%89%B9%E7%9C%81</t>
-  </si>
-  <si>
-    <t>松索纳特省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E8%8B%8F%E5%8D%A2%E5%9D%A6%E7%9C%81</t>
-  </si>
-  <si>
-    <t>乌苏卢坦省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>农业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
-  </si>
-  <si>
-    <t>咖啡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>棉花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>工業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>共產黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>足球戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%A0%E6%AE%BA</t>
-  </si>
-  <si>
-    <t>屠殺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>西班牙人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>白人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E8%8A%82</t>
-  </si>
-  <si>
-    <t>劳动节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E4%BA%B2%E8%8A%82</t>
-  </si>
-  <si>
-    <t>母亲节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
-  </si>
-  <si>
-    <t>哥倫布</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
-  </si>
-  <si>
-    <t>足球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>薩爾瓦多國家足球隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>1970年世界盃足球賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1982%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>1982年世界盃足球賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>世界盃足球賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
-  </si>
-  <si>
-    <t>Central Intelligence Agency</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
-  </si>
-  <si>
-    <t>International Monetary Fund</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
-  </si>
-  <si>
-    <t>世界概况</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
-  </si>
-  <si>
-    <t>开放式目录</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/BBC_News</t>
-  </si>
-  <si>
-    <t>BBC News</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
-  </si>
-  <si>
-    <t>维基导游</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
-  </si>
-  <si>
-    <t>Template talk-America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>中美 (政治地理学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>多明尼加共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖克里斯多福與尼維斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
-  </si>
-  <si>
-    <t>千里達及托巴哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>秘魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
-  </si>
-  <si>
-    <t>蘇利南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安圭拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>阿魯巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>庫拉索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>荷屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>英屬維京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>開曼群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>福克蘭群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
-  </si>
-  <si>
-    <t>法屬圭亞那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>馬提尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>法屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖巴泰勒米島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>蒙塞拉特島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>納弗沙島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>南乔治亚和南桑威奇群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>不结盟运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
-  </si>
-  <si>
-    <t>汶萊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中非共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
-  </si>
-  <si>
-    <t>葛摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>朝鲜民主主义人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多米尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%B4%A2%E6%89%98</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>蒙古国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>阿拉伯国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>伊斯兰合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>拉丁语联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
-  </si>
-  <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>幾內亞比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>加泰羅尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>法語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>義大利語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>葡萄牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞士歷史辭典</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I333"/>
+  <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2987,7 +2963,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
         <v>9</v>
@@ -3013,10 +2989,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3042,10 +3018,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
         <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -3071,10 +3047,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
         <v>47</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3100,10 +3076,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3129,10 +3105,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -3158,10 +3134,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3187,10 +3163,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3216,10 +3192,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3245,10 +3221,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3274,10 +3250,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3303,10 +3279,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3332,10 +3308,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3361,10 +3337,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3390,10 +3366,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -3419,10 +3395,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3448,10 +3424,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3477,10 +3453,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3506,10 +3482,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3535,10 +3511,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3564,10 +3540,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -3593,10 +3569,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3622,10 +3598,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3651,10 +3627,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3680,10 +3656,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3709,10 +3685,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3738,10 +3714,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3767,10 +3743,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3796,10 +3772,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3825,10 +3801,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3854,10 +3830,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
@@ -3883,10 +3859,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3912,10 +3888,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3941,10 +3917,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>7</v>
@@ -3970,10 +3946,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3999,10 +3975,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4028,10 +4004,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -4057,10 +4033,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>21</v>
@@ -4086,10 +4062,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -4115,10 +4091,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4144,10 +4120,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4173,10 +4149,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4202,10 +4178,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4231,10 +4207,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4260,10 +4236,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>7</v>
@@ -4289,10 +4265,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4318,13 +4294,13 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -4347,10 +4323,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4376,13 +4352,13 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -4405,13 +4381,13 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -4434,10 +4410,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4463,10 +4439,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4492,13 +4468,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -4521,13 +4497,13 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -4550,13 +4526,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -4579,10 +4555,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4608,10 +4584,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4637,10 +4613,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4666,10 +4642,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4695,10 +4671,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4724,10 +4700,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4753,10 +4729,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4782,13 +4758,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -4811,13 +4787,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -4840,10 +4816,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4869,10 +4845,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4898,10 +4874,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4927,10 +4903,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4956,13 +4932,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4985,13 +4961,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -5014,13 +4990,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -5043,13 +5019,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -5072,13 +5048,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -5101,10 +5077,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5130,10 +5106,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5159,10 +5135,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5188,13 +5164,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -5217,13 +5193,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -5246,10 +5222,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5275,13 +5251,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -5304,10 +5280,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5333,10 +5309,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5362,13 +5338,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -5391,10 +5367,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5420,13 +5396,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -5449,13 +5425,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5478,10 +5454,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5507,10 +5483,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5536,10 +5512,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5565,10 +5541,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5594,10 +5570,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5623,10 +5599,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5652,10 +5628,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5681,10 +5657,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5710,10 +5686,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5739,13 +5715,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -5768,13 +5744,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5797,13 +5773,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5826,10 +5802,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5855,13 +5831,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5884,13 +5860,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5913,13 +5889,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5942,13 +5918,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5971,10 +5947,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6000,13 +5976,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -6029,13 +6005,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="G129" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -6058,13 +6034,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6087,13 +6063,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6116,13 +6092,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -6145,10 +6121,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -6174,10 +6150,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -6203,13 +6179,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6232,10 +6208,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6261,10 +6237,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6290,10 +6266,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6319,13 +6295,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6348,13 +6324,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -6377,13 +6353,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6406,13 +6382,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6435,13 +6411,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -6464,13 +6440,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -6493,13 +6469,13 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6522,13 +6498,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6551,13 +6527,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6580,13 +6556,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6609,10 +6585,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6638,13 +6614,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -6667,13 +6643,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6696,13 +6672,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6725,10 +6701,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -6754,13 +6730,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6783,13 +6759,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6812,13 +6788,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6841,13 +6817,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6870,13 +6846,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6899,13 +6875,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6928,13 +6904,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6957,13 +6933,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6986,13 +6962,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7015,10 +6991,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7044,10 +7020,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7073,10 +7049,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7102,10 +7078,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7131,10 +7107,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7160,10 +7136,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7189,10 +7165,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7218,10 +7194,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7247,10 +7223,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7276,10 +7252,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7305,10 +7281,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7334,10 +7310,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7363,10 +7339,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7392,10 +7368,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7421,10 +7397,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7450,10 +7426,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7479,10 +7455,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7508,10 +7484,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7537,10 +7513,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7566,10 +7542,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7595,10 +7571,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7624,10 +7600,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7653,13 +7629,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7682,13 +7658,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7711,13 +7687,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7740,13 +7716,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7769,13 +7745,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7798,10 +7774,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7827,10 +7803,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7856,10 +7832,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7885,10 +7861,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7914,13 +7890,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7943,13 +7919,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7972,10 +7948,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8001,10 +7977,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8030,10 +8006,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8059,10 +8035,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>243</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8088,10 +8064,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8117,10 +8093,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8146,10 +8122,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8175,10 +8151,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8204,10 +8180,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8233,10 +8209,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8262,10 +8238,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8291,10 +8267,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8320,10 +8296,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8349,13 +8325,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8378,13 +8354,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -8407,10 +8383,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8436,13 +8412,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>289</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8465,13 +8441,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8494,10 +8470,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8523,13 +8499,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8552,13 +8528,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8581,13 +8557,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8610,13 +8586,13 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -8639,13 +8615,13 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -8668,13 +8644,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8697,10 +8673,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8726,10 +8702,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8755,10 +8731,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8784,10 +8760,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8813,10 +8789,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8842,10 +8818,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8871,10 +8847,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8900,13 +8876,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8929,13 +8905,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -8958,13 +8934,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -8987,13 +8963,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -9016,10 +8992,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9045,10 +9021,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9074,10 +9050,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9103,10 +9079,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9132,10 +9108,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9161,10 +9137,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9190,10 +9166,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9219,10 +9195,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9248,10 +9224,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9277,10 +9253,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9306,10 +9282,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9335,10 +9311,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9364,10 +9340,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9393,10 +9369,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9422,10 +9398,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9451,10 +9427,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9480,10 +9456,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9509,10 +9485,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9538,10 +9514,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9567,13 +9543,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9596,13 +9572,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9625,10 +9601,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9654,10 +9630,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9683,10 +9659,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9712,10 +9688,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9741,10 +9717,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9770,10 +9746,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9799,10 +9775,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9828,10 +9804,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9857,13 +9833,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>295</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -9886,10 +9862,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9915,13 +9891,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -9944,10 +9920,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9973,10 +9949,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>270</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>271</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10002,10 +9978,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>274</v>
+      </c>
+      <c r="F266" t="s">
         <v>275</v>
-      </c>
-      <c r="F266" t="s">
-        <v>276</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10031,13 +10007,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>279</v>
+        <v>506</v>
       </c>
       <c r="F267" t="s">
-        <v>280</v>
+        <v>507</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10060,13 +10036,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10089,13 +10065,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10118,13 +10094,13 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -10147,10 +10123,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10176,10 +10152,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10205,10 +10181,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10234,10 +10210,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10263,10 +10239,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10292,10 +10268,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10321,10 +10297,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>298</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>299</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10350,10 +10326,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>303</v>
+        <v>526</v>
       </c>
       <c r="F278" t="s">
-        <v>304</v>
+        <v>527</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10379,10 +10355,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10408,10 +10384,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10437,10 +10413,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10466,13 +10442,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -10495,13 +10471,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -10524,10 +10500,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10553,10 +10529,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10582,10 +10558,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10611,10 +10587,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10640,10 +10616,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10669,10 +10645,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10698,10 +10674,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10727,10 +10703,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10756,10 +10732,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10785,10 +10761,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10814,10 +10790,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10843,10 +10819,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10872,10 +10848,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10901,10 +10877,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10930,10 +10906,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10959,10 +10935,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10988,10 +10964,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11017,10 +10993,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11046,10 +11022,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11075,10 +11051,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11104,10 +11080,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11133,10 +11109,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11162,10 +11138,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11191,13 +11167,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>194</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11220,13 +11196,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G308" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11249,10 +11225,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11278,13 +11254,13 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -11307,13 +11283,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -11336,10 +11312,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11365,13 +11341,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -11394,13 +11370,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -11423,10 +11399,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11452,10 +11428,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11481,10 +11457,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11510,10 +11486,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11539,13 +11515,13 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -11568,13 +11544,13 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -11597,10 +11573,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>301</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11626,10 +11602,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11655,10 +11631,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11684,10 +11660,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11713,10 +11689,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11742,10 +11718,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11771,10 +11747,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11800,13 +11776,13 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -11829,13 +11805,13 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G329" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -11858,10 +11834,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11887,10 +11863,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11916,10 +11892,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11945,18 +11921,47 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
       </c>
       <c r="I333" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>333</v>
+      </c>
+      <c r="E334" t="s">
+        <v>634</v>
+      </c>
+      <c r="F334" t="s">
+        <v>636</v>
+      </c>
+      <c r="G334" t="n">
+        <v>1</v>
+      </c>
+      <c r="H334" t="s">
+        <v>4</v>
+      </c>
+      <c r="I334" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/萨尔瓦多_intext.xlsx
+++ b/xlsx/萨尔瓦多_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="653">
   <si>
     <t>萨尔瓦多</t>
   </si>
@@ -29,7 +29,7 @@
     <t>薩爾瓦多 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_萨尔瓦多</t>
+    <t>体育运动_体育运动_伊朗_萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%9B%BD%E6%97%97</t>
@@ -456,6 +456,30 @@
   </si>
   <si>
     <t>石油</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UH-1%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>UH-1直升機</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/A-37%E8%9C%BB%E8%9C%93%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>A-37蜻蜓式攻擊機</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>工會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
+  </si>
+  <si>
+    <t>墮胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -2298,7 +2322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I333"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2613,7 +2637,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -2642,7 +2666,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -2845,7 +2869,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -3396,7 +3420,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -4324,7 +4348,7 @@
         <v>134</v>
       </c>
       <c r="G70" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -4550,10 +4574,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4579,13 +4603,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -4608,13 +4632,13 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -4637,13 +4661,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -4666,13 +4690,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -4695,13 +4719,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -4724,10 +4748,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4753,10 +4777,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4782,10 +4806,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4811,13 +4835,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -4840,10 +4864,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4869,10 +4893,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4898,10 +4922,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4927,10 +4951,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4956,13 +4980,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4985,13 +5009,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -5014,10 +5038,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5043,13 +5067,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -5072,10 +5096,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5101,13 +5125,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -5165,7 +5189,7 @@
         <v>188</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -5246,10 +5270,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5275,10 +5299,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5304,13 +5328,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -5333,13 +5357,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -5362,10 +5386,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5391,10 +5415,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5420,10 +5444,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5449,13 +5473,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5478,13 +5502,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -5507,13 +5531,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -5536,10 +5560,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5565,10 +5589,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5594,13 +5618,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5623,10 +5647,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5652,10 +5676,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5681,10 +5705,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5710,10 +5734,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5739,10 +5763,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5768,10 +5792,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5797,13 +5821,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5826,10 +5850,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5855,10 +5879,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5884,13 +5908,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5913,13 +5937,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5942,10 +5966,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -5971,10 +5995,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6000,10 +6024,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6029,13 +6053,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -6058,13 +6082,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6093,7 +6117,7 @@
         <v>246</v>
       </c>
       <c r="G131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6151,7 +6175,7 @@
         <v>250</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6180,7 +6204,7 @@
         <v>252</v>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6203,13 +6227,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6232,13 +6256,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6261,13 +6285,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -6290,13 +6314,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6319,13 +6343,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6348,10 +6372,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -6377,10 +6401,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6406,13 +6430,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6435,10 +6459,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6464,13 +6488,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -6493,13 +6517,13 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6522,13 +6546,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6551,13 +6575,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6580,13 +6604,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6609,13 +6633,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6638,10 +6662,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6667,13 +6691,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6696,10 +6720,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6725,13 +6749,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6754,13 +6778,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6783,13 +6807,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6812,10 +6836,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -6841,10 +6865,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6870,13 +6894,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6899,10 +6923,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -6928,10 +6952,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6957,13 +6981,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6986,13 +7010,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7015,10 +7039,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7044,13 +7068,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7073,10 +7097,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7102,13 +7126,13 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7131,13 +7155,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -7160,10 +7184,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7189,10 +7213,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7218,10 +7242,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7247,10 +7271,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7276,10 +7300,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7305,10 +7329,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7334,10 +7358,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7363,10 +7387,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7392,10 +7416,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7421,10 +7445,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7450,10 +7474,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7479,10 +7503,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7508,10 +7532,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7537,10 +7561,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7566,10 +7590,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7595,10 +7619,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7624,10 +7648,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7653,10 +7677,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7682,13 +7706,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7711,13 +7735,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7740,10 +7764,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7769,13 +7793,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7798,10 +7822,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7827,13 +7851,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7856,13 +7880,13 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -7885,10 +7909,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7914,13 +7938,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7943,13 +7967,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7972,10 +7996,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8001,10 +8025,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8030,10 +8054,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8059,10 +8083,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8088,13 +8112,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8117,10 +8141,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8146,10 +8170,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8175,10 +8199,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8204,10 +8228,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8233,10 +8257,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8262,10 +8286,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8291,10 +8315,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8320,10 +8344,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8349,10 +8373,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8378,13 +8402,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -8407,10 +8431,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8436,10 +8460,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8465,13 +8489,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8494,10 +8518,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8523,13 +8547,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8552,13 +8576,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8581,10 +8605,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8610,10 +8634,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8639,10 +8663,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8668,13 +8692,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8697,13 +8721,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8726,10 +8750,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8755,13 +8779,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8784,10 +8808,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8813,13 +8837,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -8842,10 +8866,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8871,10 +8895,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8900,10 +8924,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8929,13 +8953,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -8958,10 +8982,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8987,13 +9011,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -9016,10 +9040,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9045,10 +9069,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9074,13 +9098,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9103,10 +9127,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9132,13 +9156,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9161,10 +9185,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9190,10 +9214,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9219,10 +9243,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9248,10 +9272,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9277,10 +9301,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9306,10 +9330,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9335,10 +9359,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9364,10 +9388,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9393,10 +9417,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9422,10 +9446,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9451,10 +9475,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9480,10 +9504,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9509,10 +9533,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9538,10 +9562,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9567,10 +9591,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9596,13 +9620,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9625,10 +9649,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9654,10 +9678,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9683,10 +9707,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9712,10 +9736,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9741,13 +9765,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -9770,10 +9794,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9799,10 +9823,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9828,10 +9852,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9857,10 +9881,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9886,13 +9910,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -9915,13 +9939,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -9944,10 +9968,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9973,10 +9997,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10002,10 +10026,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>275</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>276</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10031,13 +10055,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>280</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10060,10 +10084,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10089,10 +10113,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10118,13 +10142,13 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -10147,10 +10171,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>283</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>284</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10176,10 +10200,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>287</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>288</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10205,13 +10229,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10234,10 +10258,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10263,13 +10287,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10292,10 +10316,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10321,10 +10345,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10350,10 +10374,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>303</v>
+        <v>533</v>
       </c>
       <c r="F278" t="s">
-        <v>304</v>
+        <v>534</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10495,13 +10519,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>311</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>312</v>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -10524,10 +10548,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10553,10 +10577,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10582,10 +10606,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10611,10 +10635,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10640,13 +10664,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -10669,10 +10693,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10698,10 +10722,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10727,10 +10751,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10756,10 +10780,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10785,10 +10809,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10814,10 +10838,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10843,10 +10867,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10872,10 +10896,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10901,10 +10925,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10930,10 +10954,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10959,10 +10983,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10988,10 +11012,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11017,10 +11041,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11046,10 +11070,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11075,10 +11099,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11104,10 +11128,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11133,10 +11157,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11162,10 +11186,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11191,10 +11215,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11220,13 +11244,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11249,10 +11273,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11278,10 +11302,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11307,13 +11331,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -11336,10 +11360,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11365,13 +11389,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -11394,13 +11418,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -11423,10 +11447,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11452,13 +11476,13 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -11481,10 +11505,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11510,10 +11534,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11539,13 +11563,13 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -11568,13 +11592,13 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -11597,10 +11621,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11626,10 +11650,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11655,10 +11679,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11684,10 +11708,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11713,13 +11737,13 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -11742,10 +11766,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11771,10 +11795,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11800,10 +11824,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11829,13 +11853,13 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G329" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -11858,10 +11882,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11887,10 +11911,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11916,10 +11940,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11945,18 +11969,163 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>641</v>
+      </c>
+      <c r="F333" t="s">
+        <v>642</v>
+      </c>
+      <c r="G333" t="n">
+        <v>1</v>
+      </c>
+      <c r="H333" t="s">
+        <v>4</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>333</v>
+      </c>
+      <c r="E334" t="s">
         <v>643</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F334" t="s">
         <v>644</v>
       </c>
-      <c r="G333" t="n">
-        <v>1</v>
-      </c>
-      <c r="H333" t="s">
-        <v>4</v>
-      </c>
-      <c r="I333" t="n">
+      <c r="G334" t="n">
+        <v>3</v>
+      </c>
+      <c r="H334" t="s">
+        <v>4</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>334</v>
+      </c>
+      <c r="E335" t="s">
+        <v>645</v>
+      </c>
+      <c r="F335" t="s">
+        <v>646</v>
+      </c>
+      <c r="G335" t="n">
+        <v>1</v>
+      </c>
+      <c r="H335" t="s">
+        <v>4</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>335</v>
+      </c>
+      <c r="E336" t="s">
+        <v>647</v>
+      </c>
+      <c r="F336" t="s">
+        <v>648</v>
+      </c>
+      <c r="G336" t="n">
+        <v>1</v>
+      </c>
+      <c r="H336" t="s">
+        <v>4</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>336</v>
+      </c>
+      <c r="E337" t="s">
+        <v>649</v>
+      </c>
+      <c r="F337" t="s">
+        <v>650</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1</v>
+      </c>
+      <c r="H337" t="s">
+        <v>4</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1</v>
+      </c>
+      <c r="D338" t="n">
+        <v>337</v>
+      </c>
+      <c r="E338" t="s">
+        <v>651</v>
+      </c>
+      <c r="F338" t="s">
+        <v>652</v>
+      </c>
+      <c r="G338" t="n">
+        <v>1</v>
+      </c>
+      <c r="H338" t="s">
+        <v>4</v>
+      </c>
+      <c r="I338" t="n">
         <v>3</v>
       </c>
     </row>
